--- a/data_raw/Term_SOFR_latest.xlsx
+++ b/data_raw/Term_SOFR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1885,6 +1885,101 @@
         <v>0.0386056</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0431501</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0419788</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0404203</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0379793</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0432295</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0420496</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0405377</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0381374</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0431599</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0419886</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0404351</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.037846</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0428021</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0417122</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0401659</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0375904</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0427256</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0417106</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.040206</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0376652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/Term_SOFR_latest.xlsx
+++ b/data_raw/Term_SOFR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,6 +2075,101 @@
         <v>0.0373346</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.04217290000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0412319</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0396676</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0371438</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0419217</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0406989</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0388309</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0360736</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0417535</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.04055950000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0386492</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0359297</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.041739</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0405836</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.038789</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0361713</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0415016</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.04037810000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0386433</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0361192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/Term_SOFR_latest.xlsx
+++ b/data_raw/Term_SOFR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2170,6 +2170,291 @@
         <v>0.0361192</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0415016</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.04037810000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0386433</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0361192</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0414693</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0402064</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0383917</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0358183</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0414288</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.040233</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0384833</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0360702</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0413584</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.04025699999999999</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0385447</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0360384</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0413359</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0402304</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0385385</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0359516</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0415016</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.04037810000000001</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0386433</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0361192</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0414693</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0402064</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0383917</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0358183</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0414288</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.040233</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0384833</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0360702</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0413584</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.04025699999999999</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0385447</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0360384</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0413359</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0402304</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0385385</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0359516</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0415016</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.04037810000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0386433</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0361192</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0414693</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0402064</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0383917</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0358183</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0414288</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.040233</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0384833</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0360702</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0413584</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.04025699999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0385447</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0360384</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0413359</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0402304</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0385385</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0359516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
